--- a/Result_data/KMeans_KNN_10.xlsx
+++ b/Result_data/KMeans_KNN_10.xlsx
@@ -10,7 +10,10 @@
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$I$101</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -970,15 +973,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E101"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:V123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D123" sqref="D123:M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -995,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1012,7 +1045,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1029,7 +1062,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1046,7 +1079,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1062,8 +1095,23 @@
       <c r="E6">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(B3:B6)</f>
+        <v>0.79</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(C3:C6)</f>
+        <v>0.79975000000000007</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE(D3:D6)</f>
+        <v>0.79399999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1080,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1097,7 +1145,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1114,7 +1162,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1131,7 +1179,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1147,8 +1195,23 @@
       <c r="E11">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGE(B8:B11)</f>
+        <v>0.79</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGE(C8:C11)</f>
+        <v>0.79975000000000007</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(D8:D11)</f>
+        <v>0.79399999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1165,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1182,7 +1245,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1199,7 +1262,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1216,7 +1279,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1232,8 +1295,23 @@
       <c r="E16">
         <v>400</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(B13:B16)</f>
+        <v>0.78125</v>
+      </c>
+      <c r="H16">
+        <f>AVERAGE(C13:C16)</f>
+        <v>0.79149999999999987</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(D13:D16)</f>
+        <v>0.78475000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1267,7 +1345,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1284,7 +1362,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1301,7 +1379,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1317,8 +1395,23 @@
       <c r="E21">
         <v>400</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B18:B21)</f>
+        <v>0.78125</v>
+      </c>
+      <c r="H21">
+        <f>AVERAGE(C18:C21)</f>
+        <v>0.79149999999999987</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(D18:D21)</f>
+        <v>0.78475000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1335,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1352,7 +1445,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1369,7 +1462,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1386,7 +1479,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1402,8 +1495,23 @@
       <c r="E26">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGE(B23:B26)</f>
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="H26">
+        <f>AVERAGE(C23:C26)</f>
+        <v>0.78625</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(D23:D26)</f>
+        <v>0.77875000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1420,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1437,7 +1545,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1454,7 +1562,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1471,7 +1579,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1487,8 +1595,23 @@
       <c r="E31">
         <v>400</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGE(B28:B31)</f>
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="H31">
+        <f>AVERAGE(C28:C31)</f>
+        <v>0.78625</v>
+      </c>
+      <c r="I31">
+        <f>AVERAGE(D28:D31)</f>
+        <v>0.77875000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1505,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1522,7 +1645,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1539,7 +1662,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1556,7 +1679,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1572,8 +1695,23 @@
       <c r="E36">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f>AVERAGE(B33:B36)</f>
+        <v>0.78275000000000006</v>
+      </c>
+      <c r="H36">
+        <f>AVERAGE(C33:C36)</f>
+        <v>0.79425000000000001</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(D33:D36)</f>
+        <v>0.78674999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1589,8 +1727,11 @@
       <c r="E37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1606,8 +1747,11 @@
       <c r="E38">
         <v>400</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1623,8 +1767,11 @@
       <c r="E39">
         <v>400</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1640,8 +1787,11 @@
       <c r="E40">
         <v>400</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1657,8 +1807,23 @@
       <c r="E41">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f>AVERAGE(B38:B41)</f>
+        <v>0.78275000000000006</v>
+      </c>
+      <c r="H41">
+        <f>AVERAGE(C38:C41)</f>
+        <v>0.79425000000000001</v>
+      </c>
+      <c r="I41">
+        <f>AVERAGE(D38:D41)</f>
+        <v>0.78674999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1692,7 +1857,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1709,7 +1874,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1726,7 +1891,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1742,8 +1907,23 @@
       <c r="E46">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f>AVERAGE(B43:B46)</f>
+        <v>0.78125</v>
+      </c>
+      <c r="H46">
+        <f>AVERAGE(C43:C46)</f>
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="I46">
+        <f>AVERAGE(D43:D46)</f>
+        <v>0.78574999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1759,8 +1939,11 @@
       <c r="E47" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1776,8 +1959,11 @@
       <c r="E48">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1793,8 +1979,11 @@
       <c r="E49">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1810,8 +1999,11 @@
       <c r="E50">
         <v>400</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -1827,8 +2019,23 @@
       <c r="E51">
         <v>400</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <f>AVERAGE(B48:B51)</f>
+        <v>0.78125</v>
+      </c>
+      <c r="H51">
+        <f>AVERAGE(C48:C51)</f>
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="I51">
+        <f>AVERAGE(D48:D51)</f>
+        <v>0.78574999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1845,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1862,7 +2069,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1879,7 +2086,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1896,7 +2103,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -1912,8 +2119,23 @@
       <c r="E56">
         <v>400</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f>AVERAGE(B53:B56)</f>
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="H56">
+        <f>AVERAGE(C53:C56)</f>
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE(D53:D56)</f>
+        <v>0.78525</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1929,8 +2151,11 @@
       <c r="E57" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1946,8 +2171,11 @@
       <c r="E58">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1963,8 +2191,11 @@
       <c r="E59">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1980,8 +2211,11 @@
       <c r="E60">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -1997,8 +2231,23 @@
       <c r="E61">
         <v>400</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <f>AVERAGE(B58:B61)</f>
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="H61">
+        <f>AVERAGE(C58:C61)</f>
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="I61">
+        <f>AVERAGE(D58:D61)</f>
+        <v>0.78525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -2015,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2032,7 +2281,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2049,7 +2298,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2066,7 +2315,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -2082,8 +2331,23 @@
       <c r="E66">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <f>AVERAGE(B63:B66)</f>
+        <v>0.79025000000000001</v>
+      </c>
+      <c r="H66">
+        <f>AVERAGE(C63:C66)</f>
+        <v>0.79674999999999996</v>
+      </c>
+      <c r="I66">
+        <f>AVERAGE(D63:D66)</f>
+        <v>0.79375000000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -2099,8 +2363,11 @@
       <c r="E67" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2116,8 +2383,11 @@
       <c r="E68">
         <v>400</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2133,8 +2403,11 @@
       <c r="E69">
         <v>400</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2150,8 +2423,11 @@
       <c r="E70">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -2167,8 +2443,20 @@
       <c r="E71">
         <v>400</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>0.79025000000000001</v>
+      </c>
+      <c r="H71">
+        <v>0.79674999999999996</v>
+      </c>
+      <c r="I71">
+        <v>0.79375000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -2184,8 +2472,20 @@
       <c r="E72" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <f>AVERAGE(B69:B72)</f>
+        <v>0.79966666666666664</v>
+      </c>
+      <c r="H72">
+        <f>AVERAGE(C69:C72)</f>
+        <v>0.78533333333333333</v>
+      </c>
+      <c r="I72">
+        <f>AVERAGE(D69:D72)</f>
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2202,7 +2502,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -2219,7 +2519,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2236,7 +2536,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -2252,8 +2552,23 @@
       <c r="E76">
         <v>400</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f>AVERAGE(B73:B76)</f>
+        <v>0.78425</v>
+      </c>
+      <c r="H76">
+        <f>AVERAGE(C73:C76)</f>
+        <v>0.79799999999999993</v>
+      </c>
+      <c r="I76">
+        <f>AVERAGE(D73:D76)</f>
+        <v>0.78925000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2269,8 +2584,11 @@
       <c r="E77" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2286,8 +2604,11 @@
       <c r="E78">
         <v>400</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2303,8 +2624,11 @@
       <c r="E79">
         <v>400</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -2320,8 +2644,11 @@
       <c r="E80">
         <v>400</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2337,8 +2664,23 @@
       <c r="E81">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <f>AVERAGE(B78:B81)</f>
+        <v>0.78425</v>
+      </c>
+      <c r="H81">
+        <f>AVERAGE(C78:C81)</f>
+        <v>0.79799999999999993</v>
+      </c>
+      <c r="I81">
+        <f>AVERAGE(D78:D81)</f>
+        <v>0.78925000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2355,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2372,7 +2714,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2389,7 +2731,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -2406,7 +2748,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2422,8 +2764,23 @@
       <c r="E86">
         <v>400</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <f>AVERAGE(B83:B86)</f>
+        <v>0.77725</v>
+      </c>
+      <c r="H86">
+        <f>AVERAGE(C83:C86)</f>
+        <v>0.78725000000000001</v>
+      </c>
+      <c r="I86">
+        <f>AVERAGE(D83:D86)</f>
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2439,8 +2796,11 @@
       <c r="E87" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2456,8 +2816,11 @@
       <c r="E88">
         <v>400</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2473,8 +2836,11 @@
       <c r="E89">
         <v>400</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -2490,8 +2856,11 @@
       <c r="E90">
         <v>400</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2507,8 +2876,23 @@
       <c r="E91">
         <v>400</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <f>AVERAGE(B88:B91)</f>
+        <v>0.77725</v>
+      </c>
+      <c r="H91">
+        <f>AVERAGE(C88:C91)</f>
+        <v>0.78725000000000001</v>
+      </c>
+      <c r="I91">
+        <f>AVERAGE(D88:D91)</f>
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2525,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2542,7 +2926,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -2559,7 +2943,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -2576,7 +2960,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2592,8 +2976,23 @@
       <c r="E96">
         <v>400</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <f>AVERAGE(B93:B96)</f>
+        <v>0.78299999999999992</v>
+      </c>
+      <c r="H96">
+        <f>AVERAGE(C93:C96)</f>
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="I96">
+        <f>AVERAGE(D93:D96)</f>
+        <v>0.78749999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2609,8 +3008,11 @@
       <c r="E97" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2626,8 +3028,11 @@
       <c r="E98">
         <v>400</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2643,8 +3048,11 @@
       <c r="E99">
         <v>400</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -2660,8 +3068,11 @@
       <c r="E100">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2677,9 +3088,247 @@
       <c r="E101">
         <v>400</v>
       </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <f>AVERAGE(B98:B101)</f>
+        <v>0.78299999999999992</v>
+      </c>
+      <c r="H101">
+        <f>AVERAGE(C98:C101)</f>
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="I101">
+        <f>AVERAGE(D98:D101)</f>
+        <v>0.78749999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="M107">
+        <v>0.79</v>
+      </c>
+      <c r="N107">
+        <v>0.78125</v>
+      </c>
+      <c r="O107">
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="P107">
+        <v>0.78275000000000006</v>
+      </c>
+      <c r="Q107">
+        <v>0.78125</v>
+      </c>
+      <c r="R107">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="S107">
+        <v>0.79025000000000001</v>
+      </c>
+      <c r="T107">
+        <v>0.78425</v>
+      </c>
+      <c r="U107">
+        <v>0.77725</v>
+      </c>
+      <c r="V107">
+        <v>0.78299999999999992</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>0.79975000000000007</v>
+      </c>
+      <c r="G108">
+        <v>0.79399999999999993</v>
+      </c>
+      <c r="K108">
+        <v>0.78275000000000006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>0.79149999999999987</v>
+      </c>
+      <c r="G109">
+        <v>0.78475000000000006</v>
+      </c>
+      <c r="K109">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>0.78625</v>
+      </c>
+      <c r="G110">
+        <v>0.77875000000000005</v>
+      </c>
+      <c r="K110">
+        <v>0.78100000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>0.79425000000000001</v>
+      </c>
+      <c r="G111">
+        <v>0.78674999999999995</v>
+      </c>
+      <c r="K111">
+        <v>0.79025000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="G112">
+        <v>0.78574999999999995</v>
+      </c>
+      <c r="K112">
+        <v>0.78425</v>
+      </c>
+    </row>
+    <row r="113" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="G113">
+        <v>0.78525</v>
+      </c>
+      <c r="K113">
+        <v>0.77725</v>
+      </c>
+    </row>
+    <row r="114" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>0.79674999999999996</v>
+      </c>
+      <c r="G114">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="K114">
+        <v>0.78299999999999992</v>
+      </c>
+    </row>
+    <row r="115" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>0.79799999999999993</v>
+      </c>
+      <c r="G115">
+        <v>0.78925000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>0.78725000000000001</v>
+      </c>
+      <c r="G116">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="117" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="G117">
+        <v>0.78749999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>0.79975000000000007</v>
+      </c>
+      <c r="E120">
+        <v>0.79149999999999987</v>
+      </c>
+      <c r="F120">
+        <v>0.78625</v>
+      </c>
+      <c r="G120">
+        <v>0.79425000000000001</v>
+      </c>
+      <c r="H120">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="I120">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="J120">
+        <v>0.79674999999999996</v>
+      </c>
+      <c r="K120">
+        <v>0.79799999999999993</v>
+      </c>
+      <c r="L120">
+        <v>0.78725000000000001</v>
+      </c>
+      <c r="M120">
+        <v>0.79649999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>0.79399999999999993</v>
+      </c>
+      <c r="E123">
+        <v>0.78475000000000006</v>
+      </c>
+      <c r="F123">
+        <v>0.77875000000000005</v>
+      </c>
+      <c r="G123">
+        <v>0.78674999999999995</v>
+      </c>
+      <c r="H123">
+        <v>0.78574999999999995</v>
+      </c>
+      <c r="I123">
+        <v>0.78525</v>
+      </c>
+      <c r="J123">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="K123">
+        <v>0.78925000000000001</v>
+      </c>
+      <c r="L123">
+        <v>0.78125</v>
+      </c>
+      <c r="M123">
+        <v>0.78749999999999998</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I101" xr:uid="{BD52E015-8F8D-475A-8169-CD02718186AF}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Result_data/KMeans_KNN_10.xlsx
+++ b/Result_data/KMeans_KNN_10.xlsx
@@ -974,10 +974,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:V123"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123:M123"/>
+      <selection activeCell="I6" sqref="I6:I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2992,7 +2992,7 @@
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -3101,216 +3101,6 @@
       </c>
       <c r="I101">
         <f>AVERAGE(D98:D101)</f>
-        <v>0.78749999999999998</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K105">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K106">
-        <v>0.78125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K107">
-        <v>0.77499999999999991</v>
-      </c>
-      <c r="M107">
-        <v>0.79</v>
-      </c>
-      <c r="N107">
-        <v>0.78125</v>
-      </c>
-      <c r="O107">
-        <v>0.77499999999999991</v>
-      </c>
-      <c r="P107">
-        <v>0.78275000000000006</v>
-      </c>
-      <c r="Q107">
-        <v>0.78125</v>
-      </c>
-      <c r="R107">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="S107">
-        <v>0.79025000000000001</v>
-      </c>
-      <c r="T107">
-        <v>0.78425</v>
-      </c>
-      <c r="U107">
-        <v>0.77725</v>
-      </c>
-      <c r="V107">
-        <v>0.78299999999999992</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D108">
-        <v>0.79975000000000007</v>
-      </c>
-      <c r="G108">
-        <v>0.79399999999999993</v>
-      </c>
-      <c r="K108">
-        <v>0.78275000000000006</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D109">
-        <v>0.79149999999999987</v>
-      </c>
-      <c r="G109">
-        <v>0.78475000000000006</v>
-      </c>
-      <c r="K109">
-        <v>0.78125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D110">
-        <v>0.78625</v>
-      </c>
-      <c r="G110">
-        <v>0.77875000000000005</v>
-      </c>
-      <c r="K110">
-        <v>0.78100000000000003</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D111">
-        <v>0.79425000000000001</v>
-      </c>
-      <c r="G111">
-        <v>0.78674999999999995</v>
-      </c>
-      <c r="K111">
-        <v>0.79025000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D112">
-        <v>0.78949999999999998</v>
-      </c>
-      <c r="G112">
-        <v>0.78574999999999995</v>
-      </c>
-      <c r="K112">
-        <v>0.78425</v>
-      </c>
-    </row>
-    <row r="113" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D113">
-        <v>0.79249999999999998</v>
-      </c>
-      <c r="G113">
-        <v>0.78525</v>
-      </c>
-      <c r="K113">
-        <v>0.77725</v>
-      </c>
-    </row>
-    <row r="114" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D114">
-        <v>0.79674999999999996</v>
-      </c>
-      <c r="G114">
-        <v>0.79375000000000007</v>
-      </c>
-      <c r="K114">
-        <v>0.78299999999999992</v>
-      </c>
-    </row>
-    <row r="115" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D115">
-        <v>0.79799999999999993</v>
-      </c>
-      <c r="G115">
-        <v>0.78925000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D116">
-        <v>0.78725000000000001</v>
-      </c>
-      <c r="G116">
-        <v>0.78125</v>
-      </c>
-    </row>
-    <row r="117" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D117">
-        <v>0.79649999999999999</v>
-      </c>
-      <c r="G117">
-        <v>0.78749999999999998</v>
-      </c>
-    </row>
-    <row r="120" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D120">
-        <v>0.79975000000000007</v>
-      </c>
-      <c r="E120">
-        <v>0.79149999999999987</v>
-      </c>
-      <c r="F120">
-        <v>0.78625</v>
-      </c>
-      <c r="G120">
-        <v>0.79425000000000001</v>
-      </c>
-      <c r="H120">
-        <v>0.78949999999999998</v>
-      </c>
-      <c r="I120">
-        <v>0.79249999999999998</v>
-      </c>
-      <c r="J120">
-        <v>0.79674999999999996</v>
-      </c>
-      <c r="K120">
-        <v>0.79799999999999993</v>
-      </c>
-      <c r="L120">
-        <v>0.78725000000000001</v>
-      </c>
-      <c r="M120">
-        <v>0.79649999999999999</v>
-      </c>
-    </row>
-    <row r="123" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D123">
-        <v>0.79399999999999993</v>
-      </c>
-      <c r="E123">
-        <v>0.78475000000000006</v>
-      </c>
-      <c r="F123">
-        <v>0.77875000000000005</v>
-      </c>
-      <c r="G123">
-        <v>0.78674999999999995</v>
-      </c>
-      <c r="H123">
-        <v>0.78574999999999995</v>
-      </c>
-      <c r="I123">
-        <v>0.78525</v>
-      </c>
-      <c r="J123">
-        <v>0.79375000000000007</v>
-      </c>
-      <c r="K123">
-        <v>0.78925000000000001</v>
-      </c>
-      <c r="L123">
-        <v>0.78125</v>
-      </c>
-      <c r="M123">
         <v>0.78749999999999998</v>
       </c>
     </row>

--- a/Result_data/KMeans_KNN_10.xlsx
+++ b/Result_data/KMeans_KNN_10.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="212">
   <si>
     <t>support</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>KNN Model Train Time 0.022685738589643734</t>
+  </si>
+  <si>
+    <t>f-score</t>
   </si>
 </sst>
 </file>
@@ -977,7 +980,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I96"/>
+      <selection activeCell="G11" sqref="G11:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,13 +1004,13 @@
       <c r="F1">
         <v>1</v>
       </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1">
+      <c r="G1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1079,7 +1082,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1479,7 +1482,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -2315,7 +2318,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -2648,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2860,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -3105,7 +3108,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I101" xr:uid="{BD52E015-8F8D-475A-8169-CD02718186AF}">
+  <autoFilter ref="A1:I101" xr:uid="{FDF04E54-34B7-4F74-8411-25F593A97BE2}">
     <filterColumn colId="0">
       <filters>
         <filter val="4"/>
@@ -3113,7 +3116,7 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
